--- a/input/ej4.xlsx
+++ b/input/ej4.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
-  <si>
-    <t>Duración</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -64,16 +61,13 @@
     <t>O</t>
   </si>
   <si>
-    <t>t_optimista</t>
-  </si>
-  <si>
-    <t>t_medio</t>
-  </si>
-  <si>
-    <t>t_pesimista</t>
-  </si>
-  <si>
-    <t/>
+    <t>to</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>tp</t>
   </si>
 </sst>
 </file>
@@ -129,28 +123,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -159,7 +144,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,13 +177,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -463,100 +448,98 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -569,24 +552,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -599,24 +582,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -628,117 +611,87 @@
       <c r="P4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -751,13 +704,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4"/>
@@ -773,14 +726,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
@@ -795,14 +748,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -815,14 +768,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -835,14 +788,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -855,14 +808,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -875,14 +828,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -895,14 +848,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -915,14 +868,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -935,14 +888,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -955,14 +908,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -975,14 +928,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -995,14 +948,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1013,26 +966,6 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
